--- a/SubwayData/Excel/경의중앙선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/경의중앙선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98856C03-5974-184C-A930-F4381C78BEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4181D5-931F-0446-AAB4-C166BC2E3E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{967DE247-285D-6949-8EBA-2FA8EFAC03F0}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <t>문산</t>
   </si>
   <si>
-    <t>파주(두원대학)</t>
-  </si>
-  <si>
-    <t>월롱(서영대학교)</t>
-  </si>
-  <si>
     <t>금촌</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>강매</t>
   </si>
   <si>
-    <t>화전(한국항공대)</t>
-  </si>
-  <si>
     <t>수색</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>망우</t>
   </si>
   <si>
-    <t>양원(서울시북부병원)</t>
-  </si>
-  <si>
     <t>구리</t>
   </si>
   <si>
@@ -208,16 +196,10 @@
     <t>국수</t>
   </si>
   <si>
-    <t>아신(아세아연합신학대)</t>
-  </si>
-  <si>
     <t>오빈</t>
   </si>
   <si>
     <t>양평</t>
-  </si>
-  <si>
-    <t>원덕(추읍산)</t>
   </si>
   <si>
     <t>용문</t>
@@ -234,6 +216,30 @@
   </si>
   <si>
     <t>서울역</t>
+  </si>
+  <si>
+    <t>파주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월롱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원덕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -648,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F237C0A-F8CA-1B42-9E73-DA961BE19DD0}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -732,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3">
         <v>4.4000000000000004</v>
@@ -746,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3">
         <v>2.2000000000000002</v>
@@ -760,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>4.0999999999999996</v>
@@ -774,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
         <v>2.1</v>
@@ -788,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
         <v>3.1</v>
@@ -802,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>3.1</v>
@@ -816,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -830,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>1.7</v>
@@ -844,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>1.9</v>
@@ -858,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>1.7</v>
@@ -872,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>1.6</v>
@@ -886,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3">
         <v>1.7</v>
@@ -900,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>1.8</v>
@@ -914,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
         <v>1.5</v>
@@ -928,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -942,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3">
         <v>2.4</v>
@@ -956,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3">
         <v>3.4</v>
@@ -970,7 +976,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3">
         <v>0.6</v>
@@ -984,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3">
         <v>1.7</v>
@@ -998,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3">
         <v>1.7</v>
@@ -1012,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3">
         <v>0.9</v>
@@ -1026,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3">
         <v>1.9</v>
@@ -1040,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -1054,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3">
         <v>1.5</v>
@@ -1068,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3">
         <v>1.9</v>
@@ -1082,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31" s="3">
         <v>1.4</v>
@@ -1096,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32" s="3">
         <v>1.9</v>
@@ -1110,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3">
         <v>1.6</v>
@@ -1124,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3">
         <v>1.8</v>
@@ -1138,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3">
         <v>1.4</v>
@@ -1152,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3">
         <v>2.4</v>
@@ -1166,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" s="3">
         <v>1.4</v>
@@ -1180,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3">
         <v>0.8</v>
@@ -1194,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" s="3">
         <v>0.8</v>
@@ -1208,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" s="3">
         <v>0.6</v>
@@ -1222,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D41" s="3">
         <v>1.7</v>
@@ -1236,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D42" s="3">
         <v>3.2</v>
@@ -1250,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D43" s="3">
         <v>1.7</v>
@@ -1264,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D44" s="3">
         <v>3.7</v>
@@ -1278,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3">
         <v>2.2999999999999998</v>
@@ -1292,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3">
         <v>1.5</v>
@@ -1306,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="3">
         <v>4.2</v>
@@ -1320,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D48" s="3">
         <v>6.4</v>
@@ -1334,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D49" s="3">
         <v>1.9</v>
@@ -1348,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D50" s="3">
         <v>4.7</v>
@@ -1362,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3">
         <v>2.9</v>
@@ -1376,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D52" s="3">
         <v>4.0999999999999996</v>
@@ -1390,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3">
         <v>2.8</v>
@@ -1404,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3">
         <v>2.2000000000000002</v>
@@ -1418,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D55" s="3">
         <v>5.8</v>
@@ -1432,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D56" s="3">
         <v>5.8</v>
@@ -1446,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D57" s="3">
         <v>3.6</v>
@@ -1460,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -1474,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D59" s="3">
         <v>1.7</v>
@@ -1488,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D60" s="3">
         <v>3.1</v>
